--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t xml:space="preserve"> Bib no</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">B+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-01-2003</t>
   </si>
   <si>
     <t xml:space="preserve">18 - 30</t>
@@ -230,7 +233,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -255,19 +258,19 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.66"/>
@@ -343,23 +346,23 @@
       <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="n">
-        <v>37622</v>
+      <c r="I2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,10 +373,10 @@
         <v>7956699</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -385,25 +388,25 @@
         <v>917758002484</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>23</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
